--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3529.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3529.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.023922232547287</v>
+        <v>1.478324770927429</v>
       </c>
       <c r="B1">
-        <v>2.64383082889655</v>
+        <v>1.616544485092163</v>
       </c>
       <c r="C1">
-        <v>2.810843587883216</v>
+        <v>1.726461291313171</v>
       </c>
       <c r="D1">
-        <v>3.426326158109933</v>
+        <v>1.46528422832489</v>
       </c>
       <c r="E1">
-        <v>1.44577907465001</v>
+        <v>1.252141237258911</v>
       </c>
     </row>
   </sheetData>
